--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H2">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9976189999999999</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N2">
-        <v>2.992857</v>
+        <v>0.315217</v>
       </c>
       <c r="O2">
-        <v>0.06139866523632875</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P2">
-        <v>0.06139866523632875</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q2">
-        <v>14.418297099871</v>
+        <v>3.193268587869889</v>
       </c>
       <c r="R2">
-        <v>129.764673898839</v>
+        <v>28.739417290829</v>
       </c>
       <c r="S2">
-        <v>0.009068008024959497</v>
+        <v>0.001680968539064854</v>
       </c>
       <c r="T2">
-        <v>0.009068008024959497</v>
+        <v>0.001680968539064854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H3">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2810146666666667</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N3">
-        <v>0.843044</v>
+        <v>2.992857</v>
       </c>
       <c r="O3">
-        <v>0.01729510509038539</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P3">
-        <v>0.01729510509038539</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q3">
-        <v>4.061423202065333</v>
+        <v>30.31878434883433</v>
       </c>
       <c r="R3">
-        <v>36.552808818588</v>
+        <v>272.869059139509</v>
       </c>
       <c r="S3">
-        <v>0.002554325100529012</v>
+        <v>0.01596011147533294</v>
       </c>
       <c r="T3">
-        <v>0.002554325100529011</v>
+        <v>0.01596011147533294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H4">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I4">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J4">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.969586</v>
+        <v>0.173444</v>
       </c>
       <c r="N4">
-        <v>44.90875800000001</v>
+        <v>0.520332</v>
       </c>
       <c r="O4">
-        <v>0.9213062296732859</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P4">
-        <v>0.9213062296732859</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q4">
-        <v>216.351070308474</v>
+        <v>5.271161869009334</v>
       </c>
       <c r="R4">
-        <v>1947.159632776266</v>
+        <v>47.44045682108401</v>
       </c>
       <c r="S4">
-        <v>0.1360683046116016</v>
+        <v>0.002774792355325676</v>
       </c>
       <c r="T4">
-        <v>0.1360683046116016</v>
+        <v>0.002774792355325676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.91529066666666</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H5">
-        <v>137.745872</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I5">
-        <v>0.4692032864180591</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J5">
-        <v>0.4692032864180591</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9976189999999999</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N5">
-        <v>2.992857</v>
+        <v>42.77123</v>
       </c>
       <c r="O5">
-        <v>0.06139866523632875</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P5">
-        <v>0.06139866523632875</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q5">
-        <v>45.80596635958933</v>
+        <v>433.2888937575012</v>
       </c>
       <c r="R5">
-        <v>412.2536972363039</v>
+        <v>3899.600043817511</v>
       </c>
       <c r="S5">
-        <v>0.02880845551056769</v>
+        <v>0.2280876095106129</v>
       </c>
       <c r="T5">
-        <v>0.02880845551056769</v>
+        <v>0.2280876095106129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H6">
         <v>137.745872</v>
       </c>
       <c r="I6">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J6">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2810146666666667</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N6">
-        <v>0.843044</v>
+        <v>0.315217</v>
       </c>
       <c r="O6">
-        <v>0.01729510509038539</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P6">
-        <v>0.01729510509038539</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q6">
-        <v>12.90287010159645</v>
+        <v>4.82442672602489</v>
       </c>
       <c r="R6">
-        <v>116.125830914368</v>
+        <v>43.41984053422401</v>
       </c>
       <c r="S6">
-        <v>0.008114920147354529</v>
+        <v>0.002539626505668031</v>
       </c>
       <c r="T6">
-        <v>0.008114920147354527</v>
+        <v>0.002539626505668031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H7">
         <v>137.745872</v>
       </c>
       <c r="I7">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J7">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.969586</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N7">
-        <v>44.90875800000001</v>
+        <v>2.992857</v>
       </c>
       <c r="O7">
-        <v>0.9213062296732859</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P7">
-        <v>0.9213062296732859</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q7">
-        <v>687.332892349664</v>
+        <v>45.80596635958933</v>
       </c>
       <c r="R7">
-        <v>6185.996031146977</v>
+        <v>412.253697236304</v>
       </c>
       <c r="S7">
-        <v>0.4322799107601369</v>
+        <v>0.024112719062976</v>
       </c>
       <c r="T7">
-        <v>0.4322799107601369</v>
+        <v>0.024112719062976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.474929666666667</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H8">
-        <v>4.424789000000001</v>
+        <v>137.745872</v>
       </c>
       <c r="I8">
-        <v>0.01507214343604052</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J8">
-        <v>0.01507214343604052</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9976189999999999</v>
+        <v>0.173444</v>
       </c>
       <c r="N8">
-        <v>2.992857</v>
+        <v>0.520332</v>
       </c>
       <c r="O8">
-        <v>0.06139866523632875</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P8">
-        <v>0.06139866523632875</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q8">
-        <v>1.471417859130334</v>
+        <v>7.963731674389335</v>
       </c>
       <c r="R8">
-        <v>13.242760732173</v>
+        <v>71.67358506950401</v>
       </c>
       <c r="S8">
-        <v>0.0009254094892233818</v>
+        <v>0.004192188044893702</v>
       </c>
       <c r="T8">
-        <v>0.0009254094892233817</v>
+        <v>0.004192188044893702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.474929666666667</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H9">
-        <v>4.424789000000001</v>
+        <v>137.745872</v>
       </c>
       <c r="I9">
-        <v>0.01507214343604052</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J9">
-        <v>0.01507214343604052</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2810146666666667</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N9">
-        <v>0.843044</v>
+        <v>42.77123</v>
       </c>
       <c r="O9">
-        <v>0.01729510509038539</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P9">
-        <v>0.01729510509038539</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q9">
-        <v>0.4144768686351112</v>
+        <v>654.6178192069513</v>
       </c>
       <c r="R9">
-        <v>3.730291817716</v>
+        <v>5891.560372862561</v>
       </c>
       <c r="S9">
-        <v>0.0002606743046636832</v>
+        <v>0.3445973706621904</v>
       </c>
       <c r="T9">
-        <v>0.0002606743046636831</v>
+        <v>0.3445973706621904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.474929666666667</v>
+        <v>2.332475</v>
       </c>
       <c r="H10">
-        <v>4.424789000000001</v>
+        <v>6.997425</v>
       </c>
       <c r="I10">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J10">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>14.969586</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N10">
-        <v>44.90875800000001</v>
+        <v>0.315217</v>
       </c>
       <c r="O10">
-        <v>0.9213062296732859</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P10">
-        <v>0.9213062296732859</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q10">
-        <v>22.079086489118</v>
+        <v>0.2450785906916667</v>
       </c>
       <c r="R10">
-        <v>198.711778402062</v>
+        <v>2.205707316225</v>
       </c>
       <c r="S10">
-        <v>0.01388605964215346</v>
+        <v>0.0001290118225933052</v>
       </c>
       <c r="T10">
-        <v>0.01388605964215346</v>
+        <v>0.0001290118225933052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.015061</v>
+        <v>2.332475</v>
       </c>
       <c r="H11">
-        <v>108.045183</v>
+        <v>6.997425</v>
       </c>
       <c r="I11">
-        <v>0.3680339324088102</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J11">
-        <v>0.3680339324088102</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>2.992857</v>
       </c>
       <c r="O11">
-        <v>0.06139866523632875</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P11">
-        <v>0.06139866523632875</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q11">
-        <v>35.929309139759</v>
+        <v>2.326921377025</v>
       </c>
       <c r="R11">
-        <v>323.363782257831</v>
+        <v>20.942292393225</v>
       </c>
       <c r="S11">
-        <v>0.02259679221157818</v>
+        <v>0.001224914697910111</v>
       </c>
       <c r="T11">
-        <v>0.02259679221157818</v>
+        <v>0.001224914697910111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.015061</v>
+        <v>2.332475</v>
       </c>
       <c r="H12">
-        <v>108.045183</v>
+        <v>6.997425</v>
       </c>
       <c r="I12">
-        <v>0.3680339324088102</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J12">
-        <v>0.3680339324088102</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2810146666666667</v>
+        <v>0.173444</v>
       </c>
       <c r="N12">
-        <v>0.843044</v>
+        <v>0.520332</v>
       </c>
       <c r="O12">
-        <v>0.01729510509038539</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P12">
-        <v>0.01729510509038539</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q12">
-        <v>10.12076036189467</v>
+        <v>0.4045537939000001</v>
       </c>
       <c r="R12">
-        <v>91.08684325705201</v>
+        <v>3.6409841451</v>
       </c>
       <c r="S12">
-        <v>0.006365185537838167</v>
+        <v>0.0002129611653991367</v>
       </c>
       <c r="T12">
-        <v>0.006365185537838164</v>
+        <v>0.0002129611653991367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.015061</v>
+        <v>2.332475</v>
       </c>
       <c r="H13">
-        <v>108.045183</v>
+        <v>6.997425</v>
       </c>
       <c r="I13">
-        <v>0.3680339324088102</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J13">
-        <v>0.3680339324088102</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.969586</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N13">
-        <v>44.90875800000001</v>
+        <v>42.77123</v>
       </c>
       <c r="O13">
-        <v>0.9213062296732859</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P13">
-        <v>0.9213062296732859</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q13">
-        <v>539.1305529347461</v>
+        <v>33.25427489808334</v>
       </c>
       <c r="R13">
-        <v>4852.174976412715</v>
+        <v>299.28847408275</v>
       </c>
       <c r="S13">
-        <v>0.3390719546593939</v>
+        <v>0.01750538307533367</v>
       </c>
       <c r="T13">
-        <v>0.3390719546593938</v>
+        <v>0.01750538307533367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>43.657748</v>
+      </c>
+      <c r="H14">
+        <v>130.973244</v>
+      </c>
+      <c r="I14">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="J14">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1050723333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.315217</v>
+      </c>
+      <c r="O14">
+        <v>0.006764366142259137</v>
+      </c>
+      <c r="P14">
+        <v>0.006764366142259137</v>
+      </c>
+      <c r="Q14">
+        <v>4.587221450438666</v>
+      </c>
+      <c r="R14">
+        <v>41.284993053948</v>
+      </c>
+      <c r="S14">
+        <v>0.002414759274932946</v>
+      </c>
+      <c r="T14">
+        <v>0.002414759274932946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>43.657748</v>
+      </c>
+      <c r="H15">
+        <v>130.973244</v>
+      </c>
+      <c r="I15">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="J15">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9976189999999999</v>
+      </c>
+      <c r="N15">
+        <v>2.992857</v>
+      </c>
+      <c r="O15">
+        <v>0.06422490081252995</v>
+      </c>
+      <c r="P15">
+        <v>0.06422490081252995</v>
+      </c>
+      <c r="Q15">
+        <v>43.553798902012</v>
+      </c>
+      <c r="R15">
+        <v>391.984190118108</v>
+      </c>
+      <c r="S15">
+        <v>0.0229271555763109</v>
+      </c>
+      <c r="T15">
+        <v>0.0229271555763109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.657748</v>
+      </c>
+      <c r="H16">
+        <v>130.973244</v>
+      </c>
+      <c r="I16">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="J16">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.173444</v>
+      </c>
+      <c r="N16">
+        <v>0.520332</v>
+      </c>
+      <c r="O16">
+        <v>0.01116600996625811</v>
+      </c>
+      <c r="P16">
+        <v>0.01116600996625811</v>
+      </c>
+      <c r="Q16">
+        <v>7.572174444112</v>
+      </c>
+      <c r="R16">
+        <v>68.149569997008</v>
+      </c>
+      <c r="S16">
+        <v>0.003986068400639591</v>
+      </c>
+      <c r="T16">
+        <v>0.003986068400639591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43.657748</v>
+      </c>
+      <c r="H17">
+        <v>130.973244</v>
+      </c>
+      <c r="I17">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="J17">
+        <v>0.3569823430826993</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.25707666666667</v>
+      </c>
+      <c r="N17">
+        <v>42.77123</v>
+      </c>
+      <c r="O17">
+        <v>0.9178447230789528</v>
+      </c>
+      <c r="P17">
+        <v>0.9178447230789528</v>
+      </c>
+      <c r="Q17">
+        <v>622.4318603300134</v>
+      </c>
+      <c r="R17">
+        <v>5601.88674297012</v>
+      </c>
+      <c r="S17">
+        <v>0.3276543598308159</v>
+      </c>
+      <c r="T17">
+        <v>0.3276543598308159</v>
       </c>
     </row>
   </sheetData>
